--- a/data/trans_bre/P36_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P36_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-57,67%</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-41,29%</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>104,44%</t>
+          <t>-55,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>247,9%</t>
+          <t>-44,84%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>90,69%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>148,33%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-23,75%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-35,06%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 1,05</t>
+          <t>-4,05; 1,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 1,74</t>
+          <t>-5,09; 1,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 7,23</t>
+          <t>-2,69; 6,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 6,83</t>
+          <t>-1,9; 4,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-8,6; 4,13</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-11,78; 3,72</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 295,29</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-64,74; 861,83</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-47,2; 908,18</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-82,1; 164,76</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-75,58; 83,48</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-35,97%</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,62%</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>-39,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>48,77%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>22,9%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-26,34%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10,21%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-54,21%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 2,83</t>
+          <t>-10,88; 2,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 3,51</t>
+          <t>-1,61; 3,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 3,32</t>
+          <t>-3,33; 2,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 3,1</t>
+          <t>-5,9; 3,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-5,77; 4,33</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-9,66; 1,95</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-71,22; 531,64</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,16; 630,74</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 516,27</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-88,74; 308,72</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-89,91; 436,53</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-89,91; 81,66</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-63,88%</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-29,93%</t>
+          <t>-63,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-12,7%</t>
+          <t>8,59%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-28,07%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-46,95%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-32,26%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-15,14%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 0,36</t>
+          <t>-6,89; 0,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 2,19</t>
+          <t>-1,94; 2,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 1,39</t>
+          <t>-2,52; 1,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 2,32</t>
+          <t>-5,81; 0,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 87,54</t>
+          <t>-4,78; 2,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-81,49; 342,46</t>
+          <t>-6,32; 4,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-86,2; 213,64</t>
+          <t>-100,0; 97,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-84,49; 212,06</t>
+          <t>-75,47; 452,4</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-86,41; 160,17</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-82,69; 45,22</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-81,2; 112,46</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-66,03; 107,41</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-64,4%</t>
+          <t>-5,17</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-63,64%</t>
+          <t>-5,94</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-65,32%</t>
+          <t>-63,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-51,03%</t>
+          <t>-60,81%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-62,5%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-74,36%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-62,6%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-59,07%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 0,22</t>
+          <t>-4,98; 0,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 0,25</t>
+          <t>-5,0; 0,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 0,17</t>
+          <t>-3,55; 0,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 1,11</t>
+          <t>-5,85; -0,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 61,61</t>
+          <t>-11,94; -0,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,07; -0,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 79,07</t>
+          <t>-100,0; 43,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-89,97; 104,77</t>
+          <t>-92,88; 51,28</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 70,93</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 12,96</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-88,51; -2,89</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-85,62; -4,78</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-20,38%</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-38,43%</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-43,3%</t>
+          <t>-23,88%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-15,92%</t>
+          <t>-41,12%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-44,85%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>59,65%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-32,99%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-9,12%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,97</t>
+          <t>-2,13; 1,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 1,36</t>
+          <t>-3,11; 1,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 1,09</t>
+          <t>-3,81; 0,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 1,84</t>
+          <t>-1,8; 5,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>-4,56; 1,96</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-6,24; 4,44</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 229,14</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-89,12; 118,13</t>
-        </is>
-      </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 182,42</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-92,19; 104,71</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-56,84; 494,14</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-88,76; 196,02</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-60,01; 90,29</t>
         </is>
       </c>
     </row>
@@ -1120,12 +1352,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1135,27 +1367,47 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-2,64</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>18,28%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-49,83%</t>
         </is>
       </c>
     </row>
@@ -1168,12 +1420,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 0,0</t>
+          <t>-2,99; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,62</t>
+          <t>0,0; 4,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,27 +1435,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-1,26; 2,42</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-7,45; 0,95</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-89,11; 56,49</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-56,18%</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-23,86%</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-7,95%</t>
+          <t>-56,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-10,26%</t>
+          <t>-22,7%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-7,94%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-26,42%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-40,66%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-39,48%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,73; -0,16</t>
+          <t>-3,02; -0,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,56</t>
+          <t>-1,53; 0,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,89</t>
+          <t>-1,22; 0,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,01</t>
+          <t>-2,16; 0,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-82,49; -0,98</t>
+          <t>-3,82; -0,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-58,41; 45,54</t>
+          <t>-5,34; -0,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-51,06; 67,95</t>
+          <t>-82,38; -4,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-53,84; 91,34</t>
+          <t>-59,13; 35,86</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-48,92; 70,52</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-59,36; 28,65</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-65,87; -4,73</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-57,77; -14,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
